--- a/tables/table2_clinical_presentation.xlsx
+++ b/tables/table2_clinical_presentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Bike-Injuries/Manuscript/GitHub/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_58BABCCF8F79A8D366075C52F37BD2725ACD7EF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304EA349-25C0-41F4-B8E5-FCA3BC6DCF02}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_A942FEC18F79A8D366075C52F37BD2720A4154E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D32C21-98B7-4E4F-A7E9-D6C7AE1AA102}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
   <si>
     <t>label</t>
   </si>
@@ -37,16 +37,25 @@
     <t>p</t>
   </si>
   <si>
-    <t>Total Mortality</t>
+    <t>Total N (%)</t>
+  </si>
+  <si>
+    <t>60593 (38.9)</t>
+  </si>
+  <si>
+    <t>95173 (61.1)</t>
+  </si>
+  <si>
+    <t>mortality.total</t>
   </si>
   <si>
     <t>Deceased</t>
   </si>
   <si>
-    <t>678 (1.1)</t>
-  </si>
-  <si>
-    <t>2711 (2.5)</t>
+    <t>640 (1.1)</t>
+  </si>
+  <si>
+    <t>2269 (2.4)</t>
   </si>
   <si>
     <t>&lt;0.001</t>
@@ -55,247 +64,403 @@
     <t>Alive</t>
   </si>
   <si>
-    <t>62811 (98.9)</t>
-  </si>
-  <si>
-    <t>106304 (97.5)</t>
-  </si>
-  <si>
-    <t>ED Mortality</t>
-  </si>
-  <si>
-    <t>180 (0.3)</t>
-  </si>
-  <si>
-    <t>777 (0.7)</t>
-  </si>
-  <si>
-    <t>62326 (99.7)</t>
-  </si>
-  <si>
-    <t>106399 (99.3)</t>
-  </si>
-  <si>
-    <t>Hospital Mortality</t>
-  </si>
-  <si>
-    <t>498 (0.9)</t>
-  </si>
-  <si>
-    <t>1934 (2.2)</t>
-  </si>
-  <si>
-    <t>52250 (99.1)</t>
-  </si>
-  <si>
-    <t>84289 (97.8)</t>
-  </si>
-  <si>
-    <t>Length of Hospital Stay (days)</t>
+    <t>59953 (98.9)</t>
+  </si>
+  <si>
+    <t>92904 (97.6)</t>
+  </si>
+  <si>
+    <t>(Missing)</t>
+  </si>
+  <si>
+    <t>0 (0.0)</t>
+  </si>
+  <si>
+    <t>mortality.ED</t>
+  </si>
+  <si>
+    <t>179 (0.3)</t>
+  </si>
+  <si>
+    <t>751 (0.8)</t>
+  </si>
+  <si>
+    <t>59445 (98.1)</t>
+  </si>
+  <si>
+    <t>92653 (97.4)</t>
+  </si>
+  <si>
+    <t>969 (1.6)</t>
+  </si>
+  <si>
+    <t>1769 (1.9)</t>
+  </si>
+  <si>
+    <t>mortality.hospital</t>
+  </si>
+  <si>
+    <t>461 (0.8)</t>
+  </si>
+  <si>
+    <t>1518 (1.6)</t>
+  </si>
+  <si>
+    <t>49625 (81.9)</t>
+  </si>
+  <si>
+    <t>72414 (76.1)</t>
+  </si>
+  <si>
+    <t>10507 (17.3)</t>
+  </si>
+  <si>
+    <t>21241 (22.3)</t>
+  </si>
+  <si>
+    <t>FINALDISCHARGEDAYS</t>
   </si>
   <si>
     <t>Median (IQR)</t>
   </si>
   <si>
+    <t>3.0 (2.0 to 4.0)</t>
+  </si>
+  <si>
     <t>3.0 (2.0 to 5.0)</t>
   </si>
   <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>Length of ICU Stay (days)</t>
-  </si>
-  <si>
-    <t>3.0 (2.0 to 4.0)</t>
-  </si>
-  <si>
-    <t>Injury Severity Score</t>
+    <t>TOTALICULOS</t>
+  </si>
+  <si>
+    <t>ISS</t>
   </si>
   <si>
     <t>9.0 (5.0 to 14.0)</t>
   </si>
   <si>
-    <t>9.0 (4.0 to 13.0)</t>
-  </si>
-  <si>
-    <t>ISS Categories</t>
+    <t>6.0 (4.0 to 11.0)</t>
+  </si>
+  <si>
+    <t>ISS.factor</t>
   </si>
   <si>
     <t>Minor (0-3)</t>
   </si>
   <si>
-    <t>5292 (8.3)</t>
-  </si>
-  <si>
-    <t>15513 (14.3)</t>
+    <t>5103 (8.4)</t>
+  </si>
+  <si>
+    <t>14077 (14.8)</t>
   </si>
   <si>
     <t>Moderate (4-8)</t>
   </si>
   <si>
-    <t>21449 (33.8)</t>
-  </si>
-  <si>
-    <t>38888 (35.7)</t>
+    <t>20696 (34.2)</t>
+  </si>
+  <si>
+    <t>35273 (37.1)</t>
   </si>
   <si>
     <t>Serious (9-15)</t>
   </si>
   <si>
-    <t>26456 (41.7)</t>
-  </si>
-  <si>
-    <t>35427 (32.5)</t>
+    <t>25176 (41.5)</t>
+  </si>
+  <si>
+    <t>30421 (32.0)</t>
   </si>
   <si>
     <t>Severe (16-24)</t>
   </si>
   <si>
-    <t>7682 (12.1)</t>
-  </si>
-  <si>
-    <t>11825 (10.9)</t>
+    <t>7204 (11.9)</t>
+  </si>
+  <si>
+    <t>9605 (10.1)</t>
   </si>
   <si>
     <t>Critical (&gt;25)</t>
   </si>
   <si>
-    <t>2565 (4.0)</t>
-  </si>
-  <si>
-    <t>7205 (6.6)</t>
-  </si>
-  <si>
-    <t>Total GCS</t>
+    <t>2370 (3.9)</t>
+  </si>
+  <si>
+    <t>5650 (5.9)</t>
+  </si>
+  <si>
+    <t>44 (0.1)</t>
+  </si>
+  <si>
+    <t>147 (0.2)</t>
+  </si>
+  <si>
+    <t>TOTALGCS</t>
   </si>
   <si>
     <t>15.0 (15.0 to 15.0)</t>
   </si>
   <si>
-    <t>769 (1.2)</t>
-  </si>
-  <si>
-    <t>2149 (2.0)</t>
-  </si>
-  <si>
-    <t>Alcohol Withdrawal Syndrome</t>
-  </si>
-  <si>
-    <t>70 (0.1)</t>
-  </si>
-  <si>
-    <t>739 (0.7)</t>
-  </si>
-  <si>
-    <t>Cardiac Arrest</t>
-  </si>
-  <si>
-    <t>156 (0.2)</t>
-  </si>
-  <si>
-    <t>542 (0.5)</t>
-  </si>
-  <si>
-    <t>Deep Vein Thrombosis</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>240 (0.4)</t>
-  </si>
-  <si>
-    <t>461 (0.4)</t>
-  </si>
-  <si>
-    <t>Pulmonary Embolism</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>108 (0.2)</t>
-  </si>
-  <si>
-    <t>207 (0.2)</t>
-  </si>
-  <si>
-    <t>Acute Kidney Injury</t>
-  </si>
-  <si>
-    <t>74 (0.1)</t>
-  </si>
-  <si>
-    <t>308 (0.3)</t>
-  </si>
-  <si>
-    <t>Acute Respiratory Distress Syndrome</t>
-  </si>
-  <si>
-    <t>47 (0.1)</t>
-  </si>
-  <si>
-    <t>191 (0.2)</t>
-  </si>
-  <si>
-    <t>Sepsis</t>
-  </si>
-  <si>
-    <t>48 (0.1)</t>
-  </si>
-  <si>
-    <t>182 (0.2)</t>
-  </si>
-  <si>
-    <t>Stroke / CVA</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>63 (0.1)</t>
-  </si>
-  <si>
-    <t>175 (0.2)</t>
-  </si>
-  <si>
-    <t>Hosipital-acquired Pneumonia</t>
-  </si>
-  <si>
-    <t>135 (0.2)</t>
-  </si>
-  <si>
-    <t>456 (0.4)</t>
-  </si>
-  <si>
-    <t>Unplanned Intubation</t>
-  </si>
-  <si>
-    <t>175 (0.3)</t>
-  </si>
-  <si>
-    <t>Unplanned Admission to ICU</t>
-  </si>
-  <si>
-    <t>399 (0.6)</t>
-  </si>
-  <si>
-    <t>916 (0.8)</t>
-  </si>
-  <si>
-    <t>Unplanned Return to OR</t>
-  </si>
-  <si>
-    <t>201 (0.4)</t>
-  </si>
-  <si>
-    <t>492 (0.5)</t>
-  </si>
-  <si>
-    <t>Clinical Outcomes</t>
-  </si>
-  <si>
-    <t>Hypotension (SBP &lt; 90mmHg)</t>
+    <t>SBP</t>
+  </si>
+  <si>
+    <t>134.0 (121.0 to 149.0)</t>
+  </si>
+  <si>
+    <t>132.0 (119.0 to 147.0)</t>
+  </si>
+  <si>
+    <t>sbp.hypo</t>
+  </si>
+  <si>
+    <t>Hypotensive</t>
+  </si>
+  <si>
+    <t>722 (1.2)</t>
+  </si>
+  <si>
+    <t>1849 (2.0)</t>
+  </si>
+  <si>
+    <t>Not Hypotensive</t>
+  </si>
+  <si>
+    <t>58468 (98.8)</t>
+  </si>
+  <si>
+    <t>90536 (98.0)</t>
+  </si>
+  <si>
+    <t>HC_ALCOHOLWITHDRAWAL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60447 (99.8)</t>
+  </si>
+  <si>
+    <t>94431 (99.2)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>57 (0.1)</t>
+  </si>
+  <si>
+    <t>650 (0.7)</t>
+  </si>
+  <si>
+    <t>89 (0.1)</t>
+  </si>
+  <si>
+    <t>92 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_CARDARREST</t>
+  </si>
+  <si>
+    <t>60357 (99.6)</t>
+  </si>
+  <si>
+    <t>94632 (99.4)</t>
+  </si>
+  <si>
+    <t>146 (0.2)</t>
+  </si>
+  <si>
+    <t>446 (0.5)</t>
+  </si>
+  <si>
+    <t>90 (0.1)</t>
+  </si>
+  <si>
+    <t>95 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_DVTHROMBOSIS</t>
+  </si>
+  <si>
+    <t>60285 (99.5)</t>
+  </si>
+  <si>
+    <t>94734 (99.5)</t>
+  </si>
+  <si>
+    <t>0.905</t>
+  </si>
+  <si>
+    <t>219 (0.4)</t>
+  </si>
+  <si>
+    <t>349 (0.4)</t>
+  </si>
+  <si>
+    <t>HC_EMBOLISM</t>
+  </si>
+  <si>
+    <t>60403 (99.7)</t>
+  </si>
+  <si>
+    <t>94914 (99.7)</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>100 (0.2)</t>
+  </si>
+  <si>
+    <t>165 (0.2)</t>
+  </si>
+  <si>
+    <t>94 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_KIDNEY</t>
+  </si>
+  <si>
+    <t>60440 (99.7)</t>
+  </si>
+  <si>
+    <t>94855 (99.7)</t>
+  </si>
+  <si>
+    <t>64 (0.1)</t>
+  </si>
+  <si>
+    <t>223 (0.2)</t>
+  </si>
+  <si>
+    <t>HC_RESPIRATORY</t>
+  </si>
+  <si>
+    <t>60461 (99.8)</t>
+  </si>
+  <si>
+    <t>94925 (99.7)</t>
+  </si>
+  <si>
+    <t>42 (0.1)</t>
+  </si>
+  <si>
+    <t>152 (0.2)</t>
+  </si>
+  <si>
+    <t>96 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_SEPSIS</t>
+  </si>
+  <si>
+    <t>60458 (99.8)</t>
+  </si>
+  <si>
+    <t>94942 (99.8)</t>
+  </si>
+  <si>
+    <t>45 (0.1)</t>
+  </si>
+  <si>
+    <t>136 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_STROKECVA</t>
+  </si>
+  <si>
+    <t>60442 (99.8)</t>
+  </si>
+  <si>
+    <t>94953 (99.8)</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>61 (0.1)</t>
+  </si>
+  <si>
+    <t>125 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_VAPNEUMONIA</t>
+  </si>
+  <si>
+    <t>60379 (99.6)</t>
+  </si>
+  <si>
+    <t>94758 (99.6)</t>
+  </si>
+  <si>
+    <t>125 (0.2)</t>
+  </si>
+  <si>
+    <t>322 (0.3)</t>
+  </si>
+  <si>
+    <t>93 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_INTUBATION</t>
+  </si>
+  <si>
+    <t>60349 (99.6)</t>
+  </si>
+  <si>
+    <t>94510 (99.3)</t>
+  </si>
+  <si>
+    <t>154 (0.3)</t>
+  </si>
+  <si>
+    <t>573 (0.6)</t>
+  </si>
+  <si>
+    <t>HC_UNPLANNEDICU</t>
+  </si>
+  <si>
+    <t>60131 (99.2)</t>
+  </si>
+  <si>
+    <t>94373 (99.2)</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>374 (0.6)</t>
+  </si>
+  <si>
+    <t>706 (0.7)</t>
+  </si>
+  <si>
+    <t>88 (0.1)</t>
+  </si>
+  <si>
+    <t>HC_RETURNOR</t>
+  </si>
+  <si>
+    <t>52597 (86.8)</t>
+  </si>
+  <si>
+    <t>81371 (85.5)</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>187 (0.3)</t>
+  </si>
+  <si>
+    <t>381 (0.4)</t>
+  </si>
+  <si>
+    <t>7809 (12.9)</t>
+  </si>
+  <si>
+    <t>13421 (14.1)</t>
   </si>
 </sst>
 </file>
@@ -648,16 +813,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -681,36 +847,33 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -718,16 +881,13 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -738,7 +898,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -747,12 +907,12 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -762,317 +922,706 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D31" t="s">
         <v>88</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E31" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
